--- a/Dataset_Limpio/Hoja15_Ingresos.xlsx
+++ b/Dataset_Limpio/Hoja15_Ingresos.xlsx
@@ -1,40 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Desktop\Proyecto ALL ARGENTINA\Dataset_Limpio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t>Ingresos (miles de pesos)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +71,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -426,612 +398,603 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Trimestre</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ingresos (miles de pesos)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>45292</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2024</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>280419124.08</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>280419124.07999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>45200</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2023</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>167376014.8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="D3">
+        <v>167376014.80000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>45108</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2023</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>133106593.41</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>45017</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2023</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>118060280.28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>48580</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B6">
         <v>2023</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>104134992.81</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>44835</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2022</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>72443482.9891497</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="D7">
+        <v>72443482.989149705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>44743</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2022</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>64086784.3305304</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="D8">
+        <v>64086784.330530398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>44652</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2022</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>60419500.6232803</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="D9">
+        <v>60419500.623280302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>44562</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2022</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>55219313.0146503</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>44470</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2021</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
-        <v>45467887.16501248</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="D11">
+        <v>45467887.165012479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44378</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2021</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="n">
-        <v>42999944.29282247</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="D12">
+        <v>42999944.292822473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>44287</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2021</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>38239666.63354247</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="D13">
+        <v>38239666.633542471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>44197</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2021</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36676371.36239245</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>36676371.362392448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>44105</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2020</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" t="n">
-        <v>33539702.71631177</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="D15">
+        <v>33539702.716311771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>44013</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2020</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="n">
-        <v>31997444.53069925</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="D16">
+        <v>31997444.530699249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>43922</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2020</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
-        <v>32102475.99146364</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="D17">
+        <v>32102475.991463639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>43831</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2020</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>29946216.45204913</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>29946216.452049129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>43739</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2019</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="n">
-        <v>24169250.6990153</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="D19">
+        <v>24169250.699015301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>43647</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2019</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>21652748.44464251</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>43556</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2019</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>20743117.6940061</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>43466</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2019</v>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20207413.77085243</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>20207413.770852432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>43374</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2018</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
-        <v>16637686.58900961</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="D23">
+        <v>16637686.589009609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>43282</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2018</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>15410980.69258297</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>43191</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2018</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" t="n">
-        <v>14319467.46071382</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="D25">
+        <v>14319467.460713821</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>43101</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2018</v>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13171459.23089335</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>13171459.230893349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>43009</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2017</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>11226127.38858</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>42917</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2017</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>10065997.86215</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>42826</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2017</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" t="n">
-        <v>9678646.92829</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="D29">
+        <v>9678646.9282900002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>42736</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2017</v>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>8701201.42137</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>8701201.4213699996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>42644</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2016</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" t="n">
-        <v>7483980.393279007</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="D31">
+        <v>7483980.3932790067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>42552</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2016</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6912441.538856647</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>42461</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2016</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" t="n">
-        <v>6534240.597500004</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="D33">
+        <v>6534240.5975000039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>42370</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2016</v>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5936844.886499999</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>5936844.8864999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>42278</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2015</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" t="n">
-        <v>5376899.206</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="D35">
+        <v>5376899.2060000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>42186</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>2015</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>5153738.88436</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="D36">
+        <v>5153738.8843599996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>42095</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2015</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="n">
-        <v>4701790.719660001</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="D37">
+        <v>4701790.7196600009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>42005</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2015</v>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4876385.315070001</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>4876385.3150700014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>41913</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2014</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" t="n">
-        <v>3950440.78037</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="D39">
+        <v>3950440.7803699998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>41821</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2014</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" t="n">
-        <v>3478637.742799621</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="D40">
+        <v>3478637.7427996211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>41730</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" t="n">
-        <v>3270816.20391</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="D41">
+        <v>3270816.2039100002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>41640</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2014</v>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
         <v>2984054.20878</v>
       </c>
     </row>
